--- a/ch-2-start.xlsx
+++ b/ch-2-start.xlsx
@@ -8,25 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D9FCC4-AD83-4E7A-8F14-B94BCACEADD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6419FC57-34AE-484B-AD42-E7B6C0C1E980}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-1047" windowWidth="25786" windowHeight="14587" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="uniform-distribution" sheetId="3" r:id="rId1"/>
     <sheet name="experimental-probability" sheetId="5" r:id="rId2"/>
     <sheet name="experimental-cumulative" sheetId="6" state="hidden" r:id="rId3"/>
-    <sheet name="empirical-rule" sheetId="7" r:id="rId4"/>
+    <sheet name="empirical-rule" sheetId="11" r:id="rId4"/>
     <sheet name="roulette-dist" sheetId="8" r:id="rId5"/>
     <sheet name="roulette-sample-mean-dist" sheetId="9" r:id="rId6"/>
     <sheet name="law-of-large-numbers" sheetId="10" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'roulette-dist'!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'roulette-dist'!$B$2:$B$101</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'roulette-sample-mean-dist'!$B$16</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'roulette-sample-mean-dist'!$B$17:$B$116</definedName>
-  </definedNames>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -722,22 +719,22 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.19</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65999999999999992</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85999999999999988</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99999999999999989</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,6 +976,1046 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Empirical rule: 1 s.d.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule'!$B$10:$B$109</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="100"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F98-45B4-AF75-745626A8E463}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule'!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 s.d.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule'!$C$10:$C$109</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="100"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F98-45B4-AF75-745626A8E463}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="27308399"/>
+        <c:axId val="122315711"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="27308399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="122315711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="122315711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27308399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Empirical rule: 2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> s.d.</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule'!$B$10:$B$109</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="100"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C541-492F-B021-5DE95BBBD1EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule'!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2 s.d.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule'!$D$10:$D$109</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="100"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C541-492F-B021-5DE95BBBD1EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="108453391"/>
+        <c:axId val="1647075487"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="108453391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1647075487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1647075487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108453391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Empirical rule: 3 s.d.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P(x)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule'!$B$10:$B$109</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="100"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-628B-4EC2-9C2C-49C4136DABBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'empirical-rule'!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3 s.d.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'empirical-rule'!$E$10:$E$109</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000%</c:formatCode>
+                <c:ptCount val="100"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-628B-4EC2-9C2C-49C4136DABBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="120190111"/>
+        <c:axId val="23201455"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="120190111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="23201455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="23201455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="120190111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Mean 50, Standard</a:t>
             </a:r>
             <a:r>
@@ -1058,7 +2095,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49F5-49D4-AFFE-F4E46D339D9A}"/>
+              <c16:uniqueId val="{00000000-92F9-413D-9F49-3A01B59CCAB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1311,6 +2348,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1815,6 +2972,1569 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2382,23 +5102,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43963</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>359020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B6BFCA7-5217-4A38-AC8C-8852615E0E96}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E335C49-D367-48EB-813F-D89890BD1641}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2418,7 +5138,1561 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>351692</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>140677</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B274CCD1-62A0-4DA3-9DA8-F090A4C76BC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>29309</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>189035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>344366</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>74735</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58AAB92C-F64C-4FF5-91A0-7473EA970880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBBA810-575B-4B82-9F2A-88F4D41E6CA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="uniform-distribution"/>
+      <sheetName val="experimental-probability"/>
+      <sheetName val="experimental-cumulative"/>
+      <sheetName val="empirical-rule"/>
+      <sheetName val="roulette-dist"/>
+      <sheetName val="roulette-sample-mean-dist"/>
+      <sheetName val="law-of-large-numbers"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>P(x)</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>1 s.d.</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>2 s.d.</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>3 s.d.</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>7.9634300625116137E-6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v/>
+          </cell>
+          <cell r="D10" t="str">
+            <v/>
+          </cell>
+          <cell r="E10" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>1.1152518813740447E-5</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v/>
+          </cell>
+          <cell r="D11" t="str">
+            <v/>
+          </cell>
+          <cell r="E11" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>1.5510643816312012E-5</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v/>
+          </cell>
+          <cell r="D12" t="str">
+            <v/>
+          </cell>
+          <cell r="E12" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>2.1422529588525529E-5</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v/>
+          </cell>
+          <cell r="D13" t="str">
+            <v/>
+          </cell>
+          <cell r="E13" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>2.9382973530620452E-5</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v/>
+          </cell>
+          <cell r="D14" t="str">
+            <v/>
+          </cell>
+          <cell r="E14" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>4.0022554301735056E-5</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v/>
+          </cell>
+          <cell r="D15" t="str">
+            <v/>
+          </cell>
+          <cell r="E15" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>5.4137466409963643E-5</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v/>
+          </cell>
+          <cell r="D16" t="str">
+            <v/>
+          </cell>
+          <cell r="E16" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>7.2723557920479999E-5</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v/>
+          </cell>
+          <cell r="D17" t="str">
+            <v/>
+          </cell>
+          <cell r="E17" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>9.7014438643032056E-5</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v/>
+          </cell>
+          <cell r="D18" t="str">
+            <v/>
+          </cell>
+          <cell r="E18" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>1.2852324969092545E-4</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v/>
+          </cell>
+          <cell r="D19" t="str">
+            <v/>
+          </cell>
+          <cell r="E19" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>1.69087338108314E-4</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v/>
+          </cell>
+          <cell r="D20" t="str">
+            <v/>
+          </cell>
+          <cell r="E20" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>2.2091466286917544E-4</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v/>
+          </cell>
+          <cell r="D21" t="str">
+            <v/>
+          </cell>
+          <cell r="E21" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>2.8663027726520804E-4</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v/>
+          </cell>
+          <cell r="D22" t="str">
+            <v/>
+          </cell>
+          <cell r="E22" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>3.6932070099483392E-4</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v/>
+          </cell>
+          <cell r="D23" t="str">
+            <v/>
+          </cell>
+          <cell r="E23" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>4.7257343495382426E-4</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v/>
+          </cell>
+          <cell r="D24" t="str">
+            <v/>
+          </cell>
+          <cell r="E24">
+            <v>4.7257343495382426E-4</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>6.005083137174352E-4</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v/>
+          </cell>
+          <cell r="D25" t="str">
+            <v/>
+          </cell>
+          <cell r="E25">
+            <v>6.005083137174352E-4</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>7.5779687513258774E-4</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v/>
+          </cell>
+          <cell r="D26" t="str">
+            <v/>
+          </cell>
+          <cell r="E26">
+            <v>7.5779687513258774E-4</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>9.4966550198312025E-4</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v/>
+          </cell>
+          <cell r="D27" t="str">
+            <v/>
+          </cell>
+          <cell r="E27">
+            <v>9.4966550198312025E-4</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>1.181877812869775E-3</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v/>
+          </cell>
+          <cell r="D28" t="str">
+            <v/>
+          </cell>
+          <cell r="E28">
+            <v>1.181877812869775E-3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>1.4606917077973783E-3</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v/>
+          </cell>
+          <cell r="D29" t="str">
+            <v/>
+          </cell>
+          <cell r="E29">
+            <v>1.4606917077973783E-3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>1.7927866680644716E-3</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v/>
+          </cell>
+          <cell r="D30" t="str">
+            <v/>
+          </cell>
+          <cell r="E30">
+            <v>1.7927866680644716E-3</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>2.1851574244757901E-3</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v/>
+          </cell>
+          <cell r="D31" t="str">
+            <v/>
+          </cell>
+          <cell r="E31">
+            <v>2.1851574244757901E-3</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>2.6449709863056183E-3</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v/>
+          </cell>
+          <cell r="D32" t="str">
+            <v/>
+          </cell>
+          <cell r="E32">
+            <v>2.6449709863056183E-3</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>3.1793852922014985E-3</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v/>
+          </cell>
+          <cell r="D33" t="str">
+            <v/>
+          </cell>
+          <cell r="E33">
+            <v>3.1793852922014985E-3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>3.7953294060754646E-3</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v/>
+          </cell>
+          <cell r="D34" t="str">
+            <v/>
+          </cell>
+          <cell r="E34">
+            <v>3.7953294060754646E-3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>4.4992472094323383E-3</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v/>
+          </cell>
+          <cell r="D35" t="str">
+            <v/>
+          </cell>
+          <cell r="E35">
+            <v>4.4992472094323383E-3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>5.2968088764135278E-3</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v/>
+          </cell>
+          <cell r="D36">
+            <v>5.2968088764135278E-3</v>
+          </cell>
+          <cell r="E36">
+            <v>5.2968088764135278E-3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>6.1925969632494254E-3</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v/>
+          </cell>
+          <cell r="D37">
+            <v>6.1925969632494254E-3</v>
+          </cell>
+          <cell r="E37">
+            <v>6.1925969632494254E-3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>7.1897765688759595E-3</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v/>
+          </cell>
+          <cell r="D38">
+            <v>7.1897765688759595E-3</v>
+          </cell>
+          <cell r="E38">
+            <v>7.1897765688759595E-3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>8.2897615660623893E-3</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v/>
+          </cell>
+          <cell r="D39">
+            <v>8.2897615660623893E-3</v>
+          </cell>
+          <cell r="E39">
+            <v>8.2897615660623893E-3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>9.4918911766826569E-3</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v/>
+          </cell>
+          <cell r="D40">
+            <v>9.4918911766826569E-3</v>
+          </cell>
+          <cell r="E40">
+            <v>9.4918911766826569E-3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>1.0793132972157645E-2</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v/>
+          </cell>
+          <cell r="D41">
+            <v>1.0793132972157645E-2</v>
+          </cell>
+          <cell r="E41">
+            <v>1.0793132972157645E-2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>1.2187829523294643E-2</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v/>
+          </cell>
+          <cell r="D42">
+            <v>1.2187829523294643E-2</v>
+          </cell>
+          <cell r="E42">
+            <v>1.2187829523294643E-2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>1.3667506222999469E-2</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v/>
+          </cell>
+          <cell r="D43">
+            <v>1.3667506222999469E-2</v>
+          </cell>
+          <cell r="E43">
+            <v>1.3667506222999469E-2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>1.5220757115751826E-2</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v/>
+          </cell>
+          <cell r="D44">
+            <v>1.5220757115751826E-2</v>
+          </cell>
+          <cell r="E44">
+            <v>1.5220757115751826E-2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>1.6833223796171574E-2</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v/>
+          </cell>
+          <cell r="D45">
+            <v>1.6833223796171574E-2</v>
+          </cell>
+          <cell r="E45">
+            <v>1.6833223796171574E-2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>1.848767955881133E-2</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v/>
+          </cell>
+          <cell r="D46">
+            <v>1.848767955881133E-2</v>
+          </cell>
+          <cell r="E46">
+            <v>1.848767955881133E-2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>2.0164227043261949E-2</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v/>
+          </cell>
+          <cell r="D47">
+            <v>2.0164227043261949E-2</v>
+          </cell>
+          <cell r="E47">
+            <v>2.0164227043261949E-2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>2.1840612756525119E-2</v>
+          </cell>
+          <cell r="C48">
+            <v>2.1840612756525119E-2</v>
+          </cell>
+          <cell r="D48">
+            <v>2.1840612756525119E-2</v>
+          </cell>
+          <cell r="E48">
+            <v>2.1840612756525119E-2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>2.3492656284191879E-2</v>
+          </cell>
+          <cell r="C49">
+            <v>2.3492656284191879E-2</v>
+          </cell>
+          <cell r="D49">
+            <v>2.3492656284191879E-2</v>
+          </cell>
+          <cell r="E49">
+            <v>2.3492656284191879E-2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>2.5094786012900369E-2</v>
+          </cell>
+          <cell r="C50">
+            <v>2.5094786012900369E-2</v>
+          </cell>
+          <cell r="D50">
+            <v>2.5094786012900369E-2</v>
+          </cell>
+          <cell r="E50">
+            <v>2.5094786012900369E-2</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>2.6620667126862684E-2</v>
+          </cell>
+          <cell r="C51">
+            <v>2.6620667126862684E-2</v>
+          </cell>
+          <cell r="D51">
+            <v>2.6620667126862684E-2</v>
+          </cell>
+          <cell r="E51">
+            <v>2.6620667126862684E-2</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>2.8043901895412764E-2</v>
+          </cell>
+          <cell r="C52">
+            <v>2.8043901895412764E-2</v>
+          </cell>
+          <cell r="D52">
+            <v>2.8043901895412764E-2</v>
+          </cell>
+          <cell r="E52">
+            <v>2.8043901895412764E-2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>2.9338777230358291E-2</v>
+          </cell>
+          <cell r="C53">
+            <v>2.9338777230358291E-2</v>
+          </cell>
+          <cell r="D53">
+            <v>2.9338777230358291E-2</v>
+          </cell>
+          <cell r="E53">
+            <v>2.9338777230358291E-2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>3.0481030534500204E-2</v>
+          </cell>
+          <cell r="C54">
+            <v>3.0481030534500204E-2</v>
+          </cell>
+          <cell r="D54">
+            <v>3.0481030534500204E-2</v>
+          </cell>
+          <cell r="E54">
+            <v>3.0481030534500204E-2</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>3.1448602307749429E-2</v>
+          </cell>
+          <cell r="C55">
+            <v>3.1448602307749429E-2</v>
+          </cell>
+          <cell r="D55">
+            <v>3.1448602307749429E-2</v>
+          </cell>
+          <cell r="E55">
+            <v>3.1448602307749429E-2</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>3.2222343066904101E-2</v>
+          </cell>
+          <cell r="C56">
+            <v>3.2222343066904101E-2</v>
+          </cell>
+          <cell r="D56">
+            <v>3.2222343066904101E-2</v>
+          </cell>
+          <cell r="E56">
+            <v>3.2222343066904101E-2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>3.2786643008494994E-2</v>
+          </cell>
+          <cell r="C57">
+            <v>3.2786643008494994E-2</v>
+          </cell>
+          <cell r="D57">
+            <v>3.2786643008494994E-2</v>
+          </cell>
+          <cell r="E57">
+            <v>3.2786643008494994E-2</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>3.3129955521528497E-2</v>
+          </cell>
+          <cell r="C58">
+            <v>3.3129955521528497E-2</v>
+          </cell>
+          <cell r="D58">
+            <v>3.3129955521528497E-2</v>
+          </cell>
+          <cell r="E58">
+            <v>3.3129955521528497E-2</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>3.3245190033452721E-2</v>
+          </cell>
+          <cell r="C59">
+            <v>3.3245190033452721E-2</v>
+          </cell>
+          <cell r="D59">
+            <v>3.3245190033452721E-2</v>
+          </cell>
+          <cell r="E59">
+            <v>3.3245190033452721E-2</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>3.3129955521528497E-2</v>
+          </cell>
+          <cell r="C60">
+            <v>3.3129955521528497E-2</v>
+          </cell>
+          <cell r="D60">
+            <v>3.3129955521528497E-2</v>
+          </cell>
+          <cell r="E60">
+            <v>3.3129955521528497E-2</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>3.2786643008494994E-2</v>
+          </cell>
+          <cell r="C61">
+            <v>3.2786643008494994E-2</v>
+          </cell>
+          <cell r="D61">
+            <v>3.2786643008494994E-2</v>
+          </cell>
+          <cell r="E61">
+            <v>3.2786643008494994E-2</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>3.2222343066904101E-2</v>
+          </cell>
+          <cell r="C62">
+            <v>3.2222343066904101E-2</v>
+          </cell>
+          <cell r="D62">
+            <v>3.2222343066904101E-2</v>
+          </cell>
+          <cell r="E62">
+            <v>3.2222343066904101E-2</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>3.1448602307749429E-2</v>
+          </cell>
+          <cell r="C63">
+            <v>3.1448602307749429E-2</v>
+          </cell>
+          <cell r="D63">
+            <v>3.1448602307749429E-2</v>
+          </cell>
+          <cell r="E63">
+            <v>3.1448602307749429E-2</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>3.0481030534500204E-2</v>
+          </cell>
+          <cell r="C64">
+            <v>3.0481030534500204E-2</v>
+          </cell>
+          <cell r="D64">
+            <v>3.0481030534500204E-2</v>
+          </cell>
+          <cell r="E64">
+            <v>3.0481030534500204E-2</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>2.9338777230358291E-2</v>
+          </cell>
+          <cell r="C65">
+            <v>2.9338777230358291E-2</v>
+          </cell>
+          <cell r="D65">
+            <v>2.9338777230358291E-2</v>
+          </cell>
+          <cell r="E65">
+            <v>2.9338777230358291E-2</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>2.8043901895412764E-2</v>
+          </cell>
+          <cell r="C66">
+            <v>2.8043901895412764E-2</v>
+          </cell>
+          <cell r="D66">
+            <v>2.8043901895412764E-2</v>
+          </cell>
+          <cell r="E66">
+            <v>2.8043901895412764E-2</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>2.6620667126862684E-2</v>
+          </cell>
+          <cell r="C67">
+            <v>2.6620667126862684E-2</v>
+          </cell>
+          <cell r="D67">
+            <v>2.6620667126862684E-2</v>
+          </cell>
+          <cell r="E67">
+            <v>2.6620667126862684E-2</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>2.5094786012900369E-2</v>
+          </cell>
+          <cell r="C68">
+            <v>2.5094786012900369E-2</v>
+          </cell>
+          <cell r="D68">
+            <v>2.5094786012900369E-2</v>
+          </cell>
+          <cell r="E68">
+            <v>2.5094786012900369E-2</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>2.3492656284191879E-2</v>
+          </cell>
+          <cell r="C69">
+            <v>2.3492656284191879E-2</v>
+          </cell>
+          <cell r="D69">
+            <v>2.3492656284191879E-2</v>
+          </cell>
+          <cell r="E69">
+            <v>2.3492656284191879E-2</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>2.1840612756525119E-2</v>
+          </cell>
+          <cell r="C70">
+            <v>2.1840612756525119E-2</v>
+          </cell>
+          <cell r="D70">
+            <v>2.1840612756525119E-2</v>
+          </cell>
+          <cell r="E70">
+            <v>2.1840612756525119E-2</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>2.0164227043261949E-2</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v/>
+          </cell>
+          <cell r="D71">
+            <v>2.0164227043261949E-2</v>
+          </cell>
+          <cell r="E71">
+            <v>2.0164227043261949E-2</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>1.848767955881133E-2</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v/>
+          </cell>
+          <cell r="D72">
+            <v>1.848767955881133E-2</v>
+          </cell>
+          <cell r="E72">
+            <v>1.848767955881133E-2</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>1.6833223796171574E-2</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v/>
+          </cell>
+          <cell r="D73">
+            <v>1.6833223796171574E-2</v>
+          </cell>
+          <cell r="E73">
+            <v>1.6833223796171574E-2</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>1.5220757115751826E-2</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v/>
+          </cell>
+          <cell r="D74">
+            <v>1.5220757115751826E-2</v>
+          </cell>
+          <cell r="E74">
+            <v>1.5220757115751826E-2</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>1.3667506222999469E-2</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v/>
+          </cell>
+          <cell r="D75">
+            <v>1.3667506222999469E-2</v>
+          </cell>
+          <cell r="E75">
+            <v>1.3667506222999469E-2</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>1.2187829523294643E-2</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v/>
+          </cell>
+          <cell r="D76">
+            <v>1.2187829523294643E-2</v>
+          </cell>
+          <cell r="E76">
+            <v>1.2187829523294643E-2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>1.0793132972157645E-2</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v/>
+          </cell>
+          <cell r="D77">
+            <v>1.0793132972157645E-2</v>
+          </cell>
+          <cell r="E77">
+            <v>1.0793132972157645E-2</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>9.4918911766826569E-3</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v/>
+          </cell>
+          <cell r="D78">
+            <v>9.4918911766826569E-3</v>
+          </cell>
+          <cell r="E78">
+            <v>9.4918911766826569E-3</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>8.2897615660623893E-3</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v/>
+          </cell>
+          <cell r="D79">
+            <v>8.2897615660623893E-3</v>
+          </cell>
+          <cell r="E79">
+            <v>8.2897615660623893E-3</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>7.1897765688759595E-3</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v/>
+          </cell>
+          <cell r="D80">
+            <v>7.1897765688759595E-3</v>
+          </cell>
+          <cell r="E80">
+            <v>7.1897765688759595E-3</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>6.1925969632494254E-3</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v/>
+          </cell>
+          <cell r="D81">
+            <v>6.1925969632494254E-3</v>
+          </cell>
+          <cell r="E81">
+            <v>6.1925969632494254E-3</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>5.2968088764135278E-3</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v/>
+          </cell>
+          <cell r="D82">
+            <v>5.2968088764135278E-3</v>
+          </cell>
+          <cell r="E82">
+            <v>5.2968088764135278E-3</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>4.4992472094323383E-3</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v/>
+          </cell>
+          <cell r="D83" t="str">
+            <v/>
+          </cell>
+          <cell r="E83">
+            <v>4.4992472094323383E-3</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>3.7953294060754646E-3</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v/>
+          </cell>
+          <cell r="D84" t="str">
+            <v/>
+          </cell>
+          <cell r="E84">
+            <v>3.7953294060754646E-3</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>3.1793852922014985E-3</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v/>
+          </cell>
+          <cell r="D85" t="str">
+            <v/>
+          </cell>
+          <cell r="E85">
+            <v>3.1793852922014985E-3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>2.6449709863056183E-3</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v/>
+          </cell>
+          <cell r="D86" t="str">
+            <v/>
+          </cell>
+          <cell r="E86">
+            <v>2.6449709863056183E-3</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>2.1851574244757901E-3</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v/>
+          </cell>
+          <cell r="D87" t="str">
+            <v/>
+          </cell>
+          <cell r="E87">
+            <v>2.1851574244757901E-3</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>1.7927866680644716E-3</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v/>
+          </cell>
+          <cell r="D88" t="str">
+            <v/>
+          </cell>
+          <cell r="E88">
+            <v>1.7927866680644716E-3</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>1.4606917077973783E-3</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v/>
+          </cell>
+          <cell r="D89" t="str">
+            <v/>
+          </cell>
+          <cell r="E89">
+            <v>1.4606917077973783E-3</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>1.181877812869775E-3</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v/>
+          </cell>
+          <cell r="D90" t="str">
+            <v/>
+          </cell>
+          <cell r="E90">
+            <v>1.181877812869775E-3</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>9.4966550198312025E-4</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v/>
+          </cell>
+          <cell r="D91" t="str">
+            <v/>
+          </cell>
+          <cell r="E91">
+            <v>9.4966550198312025E-4</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>7.5779687513258774E-4</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v/>
+          </cell>
+          <cell r="D92" t="str">
+            <v/>
+          </cell>
+          <cell r="E92">
+            <v>7.5779687513258774E-4</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>6.005083137174352E-4</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v/>
+          </cell>
+          <cell r="D93" t="str">
+            <v/>
+          </cell>
+          <cell r="E93">
+            <v>6.005083137174352E-4</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>4.7257343495382426E-4</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v/>
+          </cell>
+          <cell r="D94" t="str">
+            <v/>
+          </cell>
+          <cell r="E94">
+            <v>4.7257343495382426E-4</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>3.6932070099483392E-4</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v/>
+          </cell>
+          <cell r="D95" t="str">
+            <v/>
+          </cell>
+          <cell r="E95" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>2.8663027726520804E-4</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v/>
+          </cell>
+          <cell r="D96" t="str">
+            <v/>
+          </cell>
+          <cell r="E96" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>2.2091466286917544E-4</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v/>
+          </cell>
+          <cell r="D97" t="str">
+            <v/>
+          </cell>
+          <cell r="E97" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>1.69087338108314E-4</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v/>
+          </cell>
+          <cell r="D98" t="str">
+            <v/>
+          </cell>
+          <cell r="E98" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>1.2852324969092545E-4</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v/>
+          </cell>
+          <cell r="D99" t="str">
+            <v/>
+          </cell>
+          <cell r="E99" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>9.7014438643032056E-5</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v/>
+          </cell>
+          <cell r="D100" t="str">
+            <v/>
+          </cell>
+          <cell r="E100" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>7.2723557920479999E-5</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v/>
+          </cell>
+          <cell r="D101" t="str">
+            <v/>
+          </cell>
+          <cell r="E101" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>5.4137466409963643E-5</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v/>
+          </cell>
+          <cell r="D102" t="str">
+            <v/>
+          </cell>
+          <cell r="E102" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>4.0022554301735056E-5</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v/>
+          </cell>
+          <cell r="D103" t="str">
+            <v/>
+          </cell>
+          <cell r="E103" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>2.9382973530620452E-5</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v/>
+          </cell>
+          <cell r="D104" t="str">
+            <v/>
+          </cell>
+          <cell r="E104" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>2.1422529588525529E-5</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v/>
+          </cell>
+          <cell r="D105" t="str">
+            <v/>
+          </cell>
+          <cell r="E105" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>1.5510643816312012E-5</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v/>
+          </cell>
+          <cell r="D106" t="str">
+            <v/>
+          </cell>
+          <cell r="E106" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>1.1152518813740447E-5</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v/>
+          </cell>
+          <cell r="D107" t="str">
+            <v/>
+          </cell>
+          <cell r="E107" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>7.9634300625116137E-6</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v/>
+          </cell>
+          <cell r="D108" t="str">
+            <v/>
+          </cell>
+          <cell r="E108" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>5.6469174907348034E-6</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v/>
+          </cell>
+          <cell r="D109" t="str">
+            <v/>
+          </cell>
+          <cell r="E109" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2686,7 +6960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960E3A5B-C235-4E6F-9C27-EDC637ED05FA}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
@@ -2753,7 +7029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7144E408-23BC-482E-8D10-A1554517CE8E}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -2859,7 +7137,7 @@
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -2870,7 +7148,7 @@
       </c>
       <c r="F2" s="3">
         <f ca="1">COUNTIF($B$2:$B$1014,D2)/COUNT($A$2:$A$101)</f>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G2" s="2">
         <f>SUM('uniform-distribution'!$B$2:G2)</f>
@@ -2878,7 +7156,7 @@
       </c>
       <c r="H2" s="3">
         <f ca="1">SUM($F$2:F2)</f>
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
@@ -2887,7 +7165,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" ca="1" si="1">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -2898,7 +7176,7 @@
       </c>
       <c r="F3" s="3">
         <f t="shared" ref="F3:F7" ca="1" si="2">COUNTIF($B$2:$B$1014,D3)/COUNT($A$2:$A$101)</f>
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="G3" s="2">
         <f>SUM('uniform-distribution'!$B$2:G3)</f>
@@ -2906,7 +7184,7 @@
       </c>
       <c r="H3" s="3">
         <f ca="1">SUM($F$2:F3)</f>
-        <v>0.36</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
@@ -2915,7 +7193,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -2926,7 +7204,7 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="G4" s="2">
         <f>SUM('uniform-distribution'!$B$2:G4)</f>
@@ -2934,7 +7212,7 @@
       </c>
       <c r="H4" s="3">
         <f ca="1">SUM($F$2:F4)</f>
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
@@ -2943,7 +7221,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
@@ -2954,7 +7232,7 @@
       </c>
       <c r="F5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="G5" s="2">
         <f>SUM('uniform-distribution'!$B$2:G5)</f>
@@ -2962,7 +7240,7 @@
       </c>
       <c r="H5" s="3">
         <f ca="1">SUM($F$2:F5)</f>
-        <v>0.65999999999999992</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
@@ -2971,7 +7249,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -2982,7 +7260,7 @@
       </c>
       <c r="F6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G6" s="2">
         <f>SUM('uniform-distribution'!$B$2:G6)</f>
@@ -2990,7 +7268,7 @@
       </c>
       <c r="H6" s="3">
         <f ca="1">SUM($F$2:F6)</f>
-        <v>0.85999999999999988</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
@@ -2999,7 +7277,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
@@ -3010,7 +7288,7 @@
       </c>
       <c r="F7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="G7" s="2">
         <f>SUM('uniform-distribution'!$B$2:G7)</f>
@@ -3018,7 +7296,7 @@
       </c>
       <c r="H7" s="3">
         <f ca="1">SUM($F$2:F7)</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
@@ -3027,7 +7305,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.5">
@@ -3036,7 +7314,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.5">
@@ -3045,7 +7323,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.5">
@@ -3054,7 +7332,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.5">
@@ -3063,7 +7341,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.5">
@@ -3072,7 +7350,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.5">
@@ -3081,7 +7359,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.5">
@@ -3099,7 +7377,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.5">
@@ -3108,7 +7386,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -3117,7 +7395,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.5">
@@ -3144,7 +7422,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.5">
@@ -3162,7 +7440,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.5">
@@ -3171,7 +7449,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.5">
@@ -3180,7 +7458,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.5">
@@ -3189,7 +7467,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
@@ -3198,7 +7476,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
@@ -3216,7 +7494,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -3225,7 +7503,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
@@ -3252,7 +7530,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
@@ -3261,7 +7539,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
@@ -3270,7 +7548,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
@@ -3288,7 +7566,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
@@ -3297,7 +7575,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
@@ -3315,7 +7593,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
@@ -3324,7 +7602,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
@@ -3342,7 +7620,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
@@ -3351,7 +7629,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
@@ -3360,7 +7638,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
@@ -3369,7 +7647,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
@@ -3387,7 +7665,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.5">
@@ -3396,7 +7674,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.5">
@@ -3414,7 +7692,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.5">
@@ -3423,7 +7701,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.5">
@@ -3432,7 +7710,7 @@
       </c>
       <c r="B53">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.5">
@@ -3441,7 +7719,7 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.5">
@@ -3450,7 +7728,7 @@
       </c>
       <c r="B55">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.5">
@@ -3459,7 +7737,7 @@
       </c>
       <c r="B56">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.5">
@@ -3468,7 +7746,7 @@
       </c>
       <c r="B57">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.5">
@@ -3486,7 +7764,7 @@
       </c>
       <c r="B59">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.5">
@@ -3495,7 +7773,7 @@
       </c>
       <c r="B60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.5">
@@ -3504,7 +7782,7 @@
       </c>
       <c r="B61">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.5">
@@ -3513,7 +7791,7 @@
       </c>
       <c r="B62">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.5">
@@ -3522,7 +7800,7 @@
       </c>
       <c r="B63">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.5">
@@ -3540,7 +7818,7 @@
       </c>
       <c r="B65">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.5">
@@ -3549,7 +7827,7 @@
       </c>
       <c r="B66">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.5">
@@ -3558,7 +7836,7 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B101" ca="1" si="3">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.5">
@@ -3567,7 +7845,7 @@
       </c>
       <c r="B68">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.5">
@@ -3576,7 +7854,7 @@
       </c>
       <c r="B69">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.5">
@@ -3585,7 +7863,7 @@
       </c>
       <c r="B70">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.5">
@@ -3594,7 +7872,7 @@
       </c>
       <c r="B71">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.5">
@@ -3603,7 +7881,7 @@
       </c>
       <c r="B72">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.5">
@@ -3612,7 +7890,7 @@
       </c>
       <c r="B73">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.5">
@@ -3630,7 +7908,7 @@
       </c>
       <c r="B75">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.5">
@@ -3639,7 +7917,7 @@
       </c>
       <c r="B76">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.5">
@@ -3648,7 +7926,7 @@
       </c>
       <c r="B77">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.5">
@@ -3657,7 +7935,7 @@
       </c>
       <c r="B78">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.5">
@@ -3666,7 +7944,7 @@
       </c>
       <c r="B79">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.5">
@@ -3675,7 +7953,7 @@
       </c>
       <c r="B80">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.5">
@@ -3693,7 +7971,7 @@
       </c>
       <c r="B82">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.5">
@@ -3702,7 +7980,7 @@
       </c>
       <c r="B83">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.5">
@@ -3720,7 +7998,7 @@
       </c>
       <c r="B85">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.5">
@@ -3729,7 +8007,7 @@
       </c>
       <c r="B86">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.5">
@@ -3747,7 +8025,7 @@
       </c>
       <c r="B88">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.5">
@@ -3756,7 +8034,7 @@
       </c>
       <c r="B89">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.5">
@@ -3765,7 +8043,7 @@
       </c>
       <c r="B90">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.5">
@@ -3774,7 +8052,7 @@
       </c>
       <c r="B91">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.5">
@@ -3783,7 +8061,7 @@
       </c>
       <c r="B92">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.5">
@@ -3792,7 +8070,7 @@
       </c>
       <c r="B93">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.5">
@@ -3801,7 +8079,7 @@
       </c>
       <c r="B94">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.5">
@@ -3819,7 +8097,7 @@
       </c>
       <c r="B96">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.5">
@@ -3828,7 +8106,7 @@
       </c>
       <c r="B97">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.5">
@@ -3837,7 +8115,7 @@
       </c>
       <c r="B98">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.5">
@@ -3846,7 +8124,7 @@
       </c>
       <c r="B99">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.5">
@@ -3855,7 +8133,7 @@
       </c>
       <c r="B100">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.5">
@@ -3864,7 +8142,7 @@
       </c>
       <c r="B101">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3874,10 +8152,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1535EF6D-FB75-4682-BBEA-6D0E3ADD0C74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB41E81-2AF3-48BA-A18D-2A96A90C6E29}">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
@@ -3906,10 +8186,22 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="5">
+        <f>SUM(B10:B109)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <f>SUM(C10:C109)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <f>SUM(D10:D109)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <f>SUM(E10:E109)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="C6" s="6">
@@ -3926,10 +8218,34 @@
       <c r="B7" t="s">
         <v>12</v>
       </c>
+      <c r="C7">
+        <f>$B$1-(C$6*$B$2)</f>
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <f>$B$1-(D$6*$B$2)</f>
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <f>$B$1-(E$6*$B$2)</f>
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B8" t="s">
         <v>13</v>
+      </c>
+      <c r="C8">
+        <f>$B$1+(C$6*$B$2)</f>
+        <v>62</v>
+      </c>
+      <c r="D8">
+        <f>$B$1+(D$6*$B$2)</f>
+        <v>74</v>
+      </c>
+      <c r="E8">
+        <f>$B$1+(E$6*$B$2)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
@@ -5514,7 +9830,7 @@
     <col min="2" max="3" width="11.703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="1:102" ht="28.7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.5">
       <c r="B15" s="1" t="e">
         <f ca="1">_xlfn.FORMULATEXT(B17)</f>
         <v>#N/A</v>
